--- a/biology/Histoire de la zoologie et de la botanique/John_Lewin/John_Lewin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Lewin/John_Lewin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John William Lewin (1770-Sydney, 27 août 1819) est un peintre, illustrateur, naturaliste et explorateur britannique, fils de John William Lewin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il part en Nouvelle-Galles du Sud en 1799 pour y dresser un catalogue des oiseaux et insectes pour le compte du naturaliste Dru Drury. Arrivé le 11 janvier 1800, il devient le premier artiste professionnel résidant en Australie et s'installe à Parramatta où il publie son Birds of New Holland with their Natural History (1808).
 Salarié par le gouvernement, il fait partie en 1815 avec John Oxley d'une expédition dans les Blue Mountains.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prodromus Entomology (en), Natural History of Lepidopterous Insects of New South Wales, 1805
 Birds of New Holland with their Natural History, 1808
@@ -577,7 +593,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom a été donné au râle à poitrine grise (Lewinia pectoralis) et au méliphage de Lewin.
 </t>
